--- a/fsdata/미래에셋증권.xlsx
+++ b/fsdata/미래에셋증권.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_A\fsdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fintech\Bit_Project1\fsdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC214817-E387-45F5-8CB2-5BDB794B6CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AD6677-B770-4E7A-8246-66E9DE9C1F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="2880" windowWidth="16710" windowHeight="11130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_bs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="588">
   <si>
     <t>[D210000] Statement of financial position, current/non-current - Consolidated financial statements (Unit: KRW)</t>
   </si>
@@ -1783,7 +1783,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>영업수익//</t>
+    <t>영업수익</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타의영업비용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타의영업수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4267,8 +4275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4609,7 +4617,7 @@
         <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>587</v>
       </c>
       <c r="D11" t="s">
         <v>200</v>
@@ -4986,7 +4994,7 @@
         <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>586</v>
       </c>
       <c r="D21" t="s">
         <v>210</v>
@@ -5685,6 +5693,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
